--- a/data/trans_dic/iP30B8_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/iP30B8_2023-Estudios-trans_dic.xlsx
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,07; 27,4</t>
+          <t>8,21; 25,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,37; 41,05</t>
+          <t>15,6; 39,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,76; 28,86</t>
+          <t>13,58; 29,27</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,01; 16,33</t>
+          <t>9,32; 17,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,73; 15,18</t>
+          <t>9,65; 15,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,22; 14,57</t>
+          <t>10,14; 14,72</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,02; 16,62</t>
+          <t>8,06; 16,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,58; 16,86</t>
+          <t>7,25; 16,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,83; 15,0</t>
+          <t>8,76; 15,42</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,06; 15,51</t>
+          <t>9,95; 15,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,94; 15,68</t>
+          <t>11,0; 15,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,98; 14,54</t>
+          <t>10,92; 14,49</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP30B8_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/iP30B8_2023-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,57%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,5%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,22; 54,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>8,42; 25,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>15,48; 38,43</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>11,84%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>25,86%</t>
+          <t>12,43%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>20,65%</t>
+          <t>12,15%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,21; 25,85</t>
+          <t>9,0; 14,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,6; 39,15</t>
+          <t>9,11; 18,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,58; 29,27</t>
+          <t>9,9; 15,93</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,91%</t>
+          <t>11,51%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,25%</t>
+          <t>11,93%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,07%</t>
+          <t>11,74%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,32; 17,13</t>
+          <t>7,47; 16,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,65; 15,21</t>
+          <t>7,53; 17,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,14; 14,72</t>
+          <t>8,64; 15,26</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>13,23%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,56%</t>
+          <t>12,59%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,71%</t>
+          <t>12,89%</t>
         </is>
       </c>
     </row>
@@ -729,81 +729,30 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,06; 16,95</t>
+          <t>10,64; 16,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,25; 16,74</t>
+          <t>10,08; 16,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,76; 15,42</t>
+          <t>10,91; 15,26</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>12,21%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>13,13%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>12,64%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>9,95; 15,33</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>11,0; 15,78</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>10,92; 14,49</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
